--- a/src/data/profiles/xlsx/bluff/profile 23-4 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 23-4 graph.xlsx
@@ -5409,11 +5409,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99144613"/>
-        <c:axId val="1778391"/>
+        <c:axId val="15312351"/>
+        <c:axId val="90380270"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99144613"/>
+        <c:axId val="15312351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,12 +5448,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1778391"/>
+        <c:crossAx val="90380270"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1778391"/>
+        <c:axId val="90380270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5497,7 +5497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99144613"/>
+        <c:crossAx val="15312351"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
